--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H2">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I2">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J2">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.792724</v>
+        <v>8.908440666666667</v>
       </c>
       <c r="N2">
-        <v>44.378172</v>
+        <v>26.725322</v>
       </c>
       <c r="O2">
-        <v>0.07614236159562313</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="P2">
-        <v>0.07614236159562311</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="Q2">
-        <v>36.27751854854399</v>
+        <v>9.525792635386447</v>
       </c>
       <c r="R2">
-        <v>326.497666936896</v>
+        <v>85.73213371847801</v>
       </c>
       <c r="S2">
-        <v>0.0006086643204943936</v>
+        <v>0.0002253664281058305</v>
       </c>
       <c r="T2">
-        <v>0.0006086643204943935</v>
+        <v>0.0002253664281058305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H3">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I3">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J3">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>132.842182</v>
       </c>
       <c r="O3">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="P3">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="Q3">
-        <v>108.5935833845084</v>
+        <v>47.3493669772909</v>
       </c>
       <c r="R3">
-        <v>977.342250460576</v>
+        <v>426.144302795618</v>
       </c>
       <c r="S3">
-        <v>0.001821983484133203</v>
+        <v>0.001120217300248979</v>
       </c>
       <c r="T3">
-        <v>0.001821983484133203</v>
+        <v>0.001120217300248979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H4">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I4">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J4">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>135.203738</v>
+        <v>89.774269</v>
       </c>
       <c r="N4">
-        <v>405.6112139999999</v>
+        <v>269.322807</v>
       </c>
       <c r="O4">
-        <v>0.6959321290572236</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="P4">
-        <v>0.6959321290572235</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="Q4">
-        <v>331.5722048979945</v>
+        <v>95.99559591694369</v>
       </c>
       <c r="R4">
-        <v>2984.149844081951</v>
+        <v>863.9603632524932</v>
       </c>
       <c r="S4">
-        <v>0.005563119498347431</v>
+        <v>0.002271116472273971</v>
       </c>
       <c r="T4">
-        <v>0.00556311949834743</v>
+        <v>0.002271116472273971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I5">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J5">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.792724</v>
+        <v>8.908440666666667</v>
       </c>
       <c r="N5">
-        <v>44.378172</v>
+        <v>26.725322</v>
       </c>
       <c r="O5">
-        <v>0.07614236159562313</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="P5">
-        <v>0.07614236159562311</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="Q5">
-        <v>3603.023790085212</v>
+        <v>2169.804807725918</v>
       </c>
       <c r="R5">
-        <v>32427.21411076691</v>
+        <v>19528.24326953326</v>
       </c>
       <c r="S5">
-        <v>0.06045154450083984</v>
+        <v>0.05133443251614625</v>
       </c>
       <c r="T5">
-        <v>0.06045154450083983</v>
+        <v>0.05133443251614624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I6">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J6">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>132.842182</v>
       </c>
       <c r="O6">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="P6">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="Q6">
         <v>10785.33703625354</v>
@@ -818,10 +818,10 @@
         <v>97068.03332628182</v>
       </c>
       <c r="S6">
-        <v>0.1809564187718608</v>
+        <v>0.2551654205392406</v>
       </c>
       <c r="T6">
-        <v>0.1809564187718607</v>
+        <v>0.2551654205392405</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I7">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J7">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.203738</v>
+        <v>89.774269</v>
       </c>
       <c r="N7">
-        <v>405.6112139999999</v>
+        <v>269.322807</v>
       </c>
       <c r="O7">
-        <v>0.6959321290572236</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="P7">
-        <v>0.6959321290572235</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="Q7">
-        <v>32931.20891882035</v>
+        <v>21866.07598063138</v>
       </c>
       <c r="R7">
-        <v>296380.8802693832</v>
+        <v>196794.6838256824</v>
       </c>
       <c r="S7">
-        <v>0.5525199269848399</v>
+        <v>0.5173196214811024</v>
       </c>
       <c r="T7">
-        <v>0.5525199269848399</v>
+        <v>0.5173196214811023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H8">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I8">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J8">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.792724</v>
+        <v>8.908440666666667</v>
       </c>
       <c r="N8">
-        <v>44.378172</v>
+        <v>26.725322</v>
       </c>
       <c r="O8">
-        <v>0.07614236159562313</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="P8">
-        <v>0.07614236159562311</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="Q8">
-        <v>898.9241829992881</v>
+        <v>454.5046934046377</v>
       </c>
       <c r="R8">
-        <v>8090.317646993592</v>
+        <v>4090.54224064174</v>
       </c>
       <c r="S8">
-        <v>0.01508215277428889</v>
+        <v>0.01075292138204134</v>
       </c>
       <c r="T8">
-        <v>0.01508215277428889</v>
+        <v>0.01075292138204134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H9">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I9">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J9">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>132.842182</v>
       </c>
       <c r="O9">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="P9">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="Q9">
-        <v>2690.851031948606</v>
+        <v>2259.183077424215</v>
       </c>
       <c r="R9">
-        <v>24217.65928753746</v>
+        <v>20332.64769681794</v>
       </c>
       <c r="S9">
-        <v>0.04514710709115936</v>
+        <v>0.05344899265441318</v>
       </c>
       <c r="T9">
-        <v>0.04514710709115936</v>
+        <v>0.05344899265441318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H10">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I10">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J10">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.203738</v>
+        <v>89.774269</v>
       </c>
       <c r="N10">
-        <v>405.6112139999999</v>
+        <v>269.322807</v>
       </c>
       <c r="O10">
-        <v>0.6959321290572236</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="P10">
-        <v>0.6959321290572235</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="Q10">
-        <v>8216.060119833221</v>
+        <v>4580.243404454076</v>
       </c>
       <c r="R10">
-        <v>73944.54107849899</v>
+        <v>41222.19064008669</v>
       </c>
       <c r="S10">
-        <v>0.1378490825740362</v>
+        <v>0.1083619112264276</v>
       </c>
       <c r="T10">
-        <v>0.1378490825740362</v>
+        <v>0.1083619112264276</v>
       </c>
     </row>
   </sheetData>
